--- a/concepts/ore chances.xlsx
+++ b/concepts/ore chances.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WorldEconomyPlugin\concepts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DBCC8-B2EA-4884-B15F-C83998B0374F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC6EED2A-E62F-4C04-A7C7-DA754EDA10AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14220" xr2:uid="{C33A5B1E-3992-4E2F-8DA9-2D6C236D0ED5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10303" windowHeight="7834" xr2:uid="{C33A5B1E-3992-4E2F-8DA9-2D6C236D0ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ore</t>
   </si>
@@ -52,14 +48,24 @@
   </si>
   <si>
     <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Osmium</t>
+  </si>
+  <si>
+    <t>Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,15 +98,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,8 +122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863A2192-128F-4DFA-92BC-7FD31EE1AD68}" name="Tabelle1" displayName="Tabelle1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{85DD8F5A-D226-46C3-B819-CF55FEB9D4D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863A2192-128F-4DFA-92BC-7FD31EE1AD68}" name="Tabelle1" displayName="Tabelle1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{85DD8F5A-D226-46C3-B819-CF55FEB9D4D3}"/>
   <sortState ref="A2:B6">
     <sortCondition descending="1" ref="B1:B6"/>
   </sortState>
@@ -426,26 +432,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5C8E80-20E6-447D-B6B5-B2F1254E5814}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.4609375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.4609375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.3828125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -453,72 +459,174 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D7" si="0">(B2/SUM(B:B))*0.2</f>
-        <v>0.12798975058077353</v>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D21" si="0">(B2/SUM(B:B))*0.2</f>
+        <v>0.11007154650522842</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5998718822596691E-2</v>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3758943313153553E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.599871882259669E-5</v>
+      <c r="B4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3758943313153552E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5998718822596688E-8</v>
+      <c r="B5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.375894331315355E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7996156467790069E-2</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1276829939460656E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9993594112983454E-3</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8794716565767763E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7517886626307105E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.879471656576776E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7517886626307104E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
